--- a/results/OpenSource Tools/Java - OpenSource tools (LICCA).xlsx
+++ b/results/OpenSource Tools/Java - OpenSource tools (LICCA).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\OpenSource Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\OpenSource Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="T23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,28 +2525,28 @@
     </row>
     <row r="33" spans="2:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X33" s="13">
-        <f>_xlfn.STDEV.S(D30,J30,R30)</f>
-        <v>11.861121953330029</v>
+        <f>_xlfn.STDEV.P(D30,J30,R30)</f>
+        <v>9.6845655208607901</v>
       </c>
       <c r="Y33" s="6">
-        <f>_xlfn.STDEV.S(E30,K30,S30)</f>
-        <v>5.9168622815863703</v>
+        <f>_xlfn.STDEV.P(E30,K30,S30)</f>
+        <v>4.8310978227354928</v>
       </c>
       <c r="Z33" s="6">
-        <f>_xlfn.STDEV.S(F30,L30,T30)</f>
-        <v>146.44109196903054</v>
+        <f>_xlfn.STDEV.P(F30,L30,T30)</f>
+        <v>119.56865090003618</v>
       </c>
       <c r="AA33" s="6">
-        <f>_xlfn.STDEV.S(G30,N30,U30)</f>
-        <v>3.2015692802612103</v>
+        <f>_xlfn.STDEV.P(G30,N30,U30)</f>
+        <v>2.6140703709365214</v>
       </c>
       <c r="AB33" s="6">
-        <f>_xlfn.STDEV.S(I30,Q30,W30)</f>
-        <v>0.54809809581291946</v>
+        <f>_xlfn.STDEV.P(I30,Q30,W30)</f>
+        <v>0.44752022124424684</v>
       </c>
       <c r="AC33" s="6">
-        <f>_xlfn.STDEV.S(H30,P30,V30)</f>
-        <v>2.1552840402740761</v>
+        <f>_xlfn.STDEV.P(H30,P30,V30)</f>
+        <v>1.7597820498118786</v>
       </c>
       <c r="AD33" s="6"/>
       <c r="AE33" s="18" t="s">
@@ -2555,28 +2555,28 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.3">
       <c r="X34" s="13">
-        <f>_xlfn.VAR.S(D30,J30,R30)</f>
-        <v>140.68621399176754</v>
+        <f>_xlfn.VAR.P(D30,J30,R30)</f>
+        <v>93.790809327845636</v>
       </c>
       <c r="Y34" s="6">
-        <f>_xlfn.VAR.S(E30,K30,S30)</f>
-        <v>35.009259259259466</v>
+        <f>_xlfn.VAR.P(E30,K30,S30)</f>
+        <v>23.33950617283962</v>
       </c>
       <c r="Z34" s="6">
-        <f>_xlfn.VAR.S(F30,L30,T30)</f>
-        <v>21444.993417082063</v>
+        <f>_xlfn.VAR.P(F30,L30,T30)</f>
+        <v>14296.662278054722</v>
       </c>
       <c r="AA34" s="6">
-        <f>_xlfn.VAR.S(G30,N30,U30)</f>
-        <v>10.250045856312283</v>
+        <f>_xlfn.VAR.P(G30,N30,U30)</f>
+        <v>6.8333639042082019</v>
       </c>
       <c r="AB34" s="6">
-        <f>_xlfn.VAR.S(I30,Q30,W30)</f>
-        <v>0.30041152263374826</v>
+        <f>_xlfn.VAR.P(I30,Q30,W30)</f>
+        <v>0.20027434842249964</v>
       </c>
       <c r="AC34" s="6">
-        <f>_xlfn.VAR.S(H30,P30,V30)</f>
-        <v>4.6452492942601449</v>
+        <f>_xlfn.VAR.P(H30,P30,V30)</f>
+        <v>3.0968328628400967</v>
       </c>
       <c r="AD34" s="6"/>
       <c r="AE34" s="18" t="s">
@@ -3461,20 +3461,20 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N61" s="13">
-        <f>_xlfn.STDEV.S(D58,F58,J58)</f>
-        <v>4.0623990965626602</v>
+        <f>_xlfn.STDEV.P(D58,F58,J58)</f>
+        <v>3.316934972707295</v>
       </c>
       <c r="O61" s="6">
-        <f>_xlfn.STDEV.S(E58,G58,K58)</f>
-        <v>2.6772552125733391</v>
+        <f>_xlfn.STDEV.P(E58,G58,K58)</f>
+        <v>2.1859697273370635</v>
       </c>
       <c r="P61" s="13">
-        <f>_xlfn.STDEV.S(L58,H58)</f>
-        <v>3.1426968052735651</v>
+        <f>_xlfn.STDEV.P(L58,H58)</f>
+        <v>2.2222222222222365</v>
       </c>
       <c r="Q61" s="6">
-        <f>_xlfn.STDEV.S(I58,M58)</f>
-        <v>11.706545599643952</v>
+        <f>_xlfn.STDEV.P(I58,M58)</f>
+        <v>8.2777777777777768</v>
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="18" t="s">
@@ -3483,20 +3483,20 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="N62" s="13">
-        <f>_xlfn.VAR.S(D58,F58,J58)</f>
-        <v>16.503086419753117</v>
+        <f>_xlfn.VAR.P(D58,F58,J58)</f>
+        <v>11.002057613168745</v>
       </c>
       <c r="O62" s="6">
-        <f>_xlfn.VAR.S(E58,G58,K58)</f>
-        <v>7.1676954732511149</v>
+        <f>_xlfn.VAR.P(E58,G58,K58)</f>
+        <v>4.7784636488340766</v>
       </c>
       <c r="P62" s="13">
-        <f>_xlfn.VAR.S(L58,H58)</f>
-        <v>9.8765432098766723</v>
+        <f>_xlfn.VAR.P(L58,H58)</f>
+        <v>4.9382716049383362</v>
       </c>
       <c r="Q62" s="6">
-        <f>_xlfn.VAR.S(I58,M58)</f>
-        <v>137.04320987654319</v>
+        <f>_xlfn.VAR.P(I58,M58)</f>
+        <v>68.521604938271594</v>
       </c>
       <c r="R62" s="6"/>
       <c r="S62" s="18" t="s">

--- a/results/OpenSource Tools/Java - OpenSource tools (LICCA).xlsx
+++ b/results/OpenSource Tools/Java - OpenSource tools (LICCA).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>HDIF</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>TPTR</t>
+  </si>
+  <si>
+    <t>Microsoft MI</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -355,11 +358,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -457,6 +475,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -469,6 +488,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,10 +784,14 @@
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
     <col min="19" max="19" width="10.109375" customWidth="1"/>
     <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" customWidth="1"/>
     <col min="24" max="24" width="11.109375" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
@@ -853,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="W10" s="2"/>
-      <c r="X10" s="57" t="s">
+      <c r="X10" s="58" t="s">
         <v>23</v>
       </c>
     </row>
@@ -922,7 +950,7 @@
       <c r="W11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X11" s="58"/>
+      <c r="X11" s="59"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
@@ -945,7 +973,7 @@
       </c>
       <c r="H12" s="43">
         <f>171 - 5.2 * LN(F12) - 0.23 * (I12) - 16.2 * LN($X12)</f>
-        <v>96.101004227198189</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I12" s="43">
         <v>3</v>
@@ -972,7 +1000,7 @@
       </c>
       <c r="P12" s="43">
         <f>171 - 5.2 * LN(L12) - 0.23 * (Q12) - 16.2 * LN($X12)</f>
-        <v>94.476154572086045</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q12" s="46">
         <v>2</v>
@@ -993,13 +1021,13 @@
       </c>
       <c r="V12" s="33">
         <f>171 - 5.2 * LN(T12) - 0.23 * (W12) - 16.2 * LN($X12)</f>
-        <v>98.575624769378351</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W12" s="2">
         <v>3</v>
       </c>
       <c r="X12" s="26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z12" s="6"/>
     </row>
@@ -1024,7 +1052,7 @@
       </c>
       <c r="H13" s="45">
         <f t="shared" ref="H13:H29" si="0">171 - 5.2 * LN(F13) - 0.23 * (I13) - 16.2 * LN($X13)</f>
-        <v>97.218688745286812</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
@@ -1051,7 +1079,7 @@
       </c>
       <c r="P13" s="45">
         <f t="shared" ref="P13:P29" si="3">171 - 5.2 * LN(L13) - 0.23 * (Q13) - 16.2 * LN($X13)</f>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q13" s="2">
         <v>2</v>
@@ -1072,13 +1100,13 @@
       </c>
       <c r="V13" s="33">
         <f t="shared" ref="V13:V29" si="6">171 - 5.2 * LN(T13) - 0.23 * (W13) - 16.2 * LN($X13)</f>
-        <v>99.693309287466974</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W13" s="2">
         <v>3</v>
       </c>
       <c r="X13" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z13" s="6"/>
     </row>
@@ -1103,7 +1131,7 @@
       </c>
       <c r="H14" s="45">
         <f t="shared" si="0"/>
-        <v>97.218688745286812</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I14" s="6">
         <v>3</v>
@@ -1130,7 +1158,7 @@
       </c>
       <c r="P14" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q14" s="2">
         <v>2</v>
@@ -1151,13 +1179,13 @@
       </c>
       <c r="V14" s="33">
         <f t="shared" si="6"/>
-        <v>99.693309287466974</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W14" s="2">
         <v>3</v>
       </c>
       <c r="X14" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z14" s="6"/>
     </row>
@@ -1182,7 +1210,7 @@
       </c>
       <c r="H15" s="45">
         <f t="shared" si="0"/>
-        <v>96.026245813122699</v>
+        <v>97.143930331211322</v>
       </c>
       <c r="I15" s="6">
         <v>3</v>
@@ -1209,7 +1237,7 @@
       </c>
       <c r="P15" s="45">
         <f t="shared" si="3"/>
-        <v>94.476154572086045</v>
+        <v>95.593839090174669</v>
       </c>
       <c r="Q15" s="2">
         <v>2</v>
@@ -1230,13 +1258,13 @@
       </c>
       <c r="V15" s="33">
         <f t="shared" si="6"/>
-        <v>98.575624769378351</v>
+        <v>99.693309287466974</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
       </c>
       <c r="X15" s="21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="6"/>
     </row>
@@ -1261,7 +1289,7 @@
       </c>
       <c r="H16" s="45">
         <f t="shared" si="0"/>
-        <v>97.124921890961474</v>
+        <v>98.325471039851749</v>
       </c>
       <c r="I16" s="6">
         <v>3</v>
@@ -1288,7 +1316,7 @@
       </c>
       <c r="P16" s="45">
         <f t="shared" si="3"/>
-        <v>95.008379070822485</v>
+        <v>96.20892821971276</v>
       </c>
       <c r="Q16" s="2">
         <v>2</v>
@@ -1309,13 +1337,13 @@
       </c>
       <c r="V16" s="33">
         <f t="shared" si="6"/>
-        <v>100.03708756956715</v>
+        <v>101.23763671845742</v>
       </c>
       <c r="W16" s="2">
         <v>3</v>
       </c>
       <c r="X16" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z16" s="6"/>
     </row>
@@ -1340,7 +1368,7 @@
       </c>
       <c r="H17" s="45">
         <f t="shared" si="0"/>
-        <v>97.124921890961474</v>
+        <v>98.325471039851749</v>
       </c>
       <c r="I17" s="6">
         <v>3</v>
@@ -1367,7 +1395,7 @@
       </c>
       <c r="P17" s="45">
         <f t="shared" si="3"/>
-        <v>95.008379070822485</v>
+        <v>96.20892821971276</v>
       </c>
       <c r="Q17" s="2">
         <v>2</v>
@@ -1388,13 +1416,13 @@
       </c>
       <c r="V17" s="33">
         <f t="shared" si="6"/>
-        <v>100.03708756956715</v>
+        <v>101.23763671845742</v>
       </c>
       <c r="W17" s="2">
         <v>3</v>
       </c>
       <c r="X17" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z17" s="6"/>
     </row>
@@ -1419,7 +1447,7 @@
       </c>
       <c r="H18" s="45">
         <f t="shared" si="0"/>
-        <v>97.631197937759623</v>
+        <v>98.831747086649898</v>
       </c>
       <c r="I18" s="6">
         <v>3</v>
@@ -1446,7 +1474,7 @@
       </c>
       <c r="P18" s="45">
         <f t="shared" si="3"/>
-        <v>95.896772034294997</v>
+        <v>97.097321183185272</v>
       </c>
       <c r="Q18" s="2">
         <v>2</v>
@@ -1467,13 +1495,13 @@
       </c>
       <c r="V18" s="33">
         <f t="shared" si="6"/>
-        <v>100.10581888765827</v>
+        <v>101.30636803654855</v>
       </c>
       <c r="W18" s="2">
         <v>3</v>
       </c>
       <c r="X18" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z18" s="6"/>
     </row>
@@ -1498,7 +1526,7 @@
       </c>
       <c r="H19" s="45">
         <f t="shared" si="0"/>
-        <v>96.716221193501923</v>
+        <v>97.916770342392198</v>
       </c>
       <c r="I19" s="6">
         <v>3</v>
@@ -1525,7 +1553,7 @@
       </c>
       <c r="P19" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q19" s="2">
         <v>2</v>
@@ -1546,13 +1574,13 @@
       </c>
       <c r="V19" s="33">
         <f t="shared" si="6"/>
-        <v>99.293111873559099</v>
+        <v>100.49366102244937</v>
       </c>
       <c r="W19" s="2">
         <v>3</v>
       </c>
       <c r="X19" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z19" s="6"/>
     </row>
@@ -1577,7 +1605,7 @@
       </c>
       <c r="H20" s="45">
         <f t="shared" si="0"/>
-        <v>96.854918474086617</v>
+        <v>98.055467622976892</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
@@ -1604,7 +1632,7 @@
       </c>
       <c r="P20" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q20" s="2">
         <v>2</v>
@@ -1625,13 +1653,13 @@
       </c>
       <c r="V20" s="33">
         <f t="shared" si="6"/>
-        <v>99.293111873559099</v>
+        <v>100.49366102244937</v>
       </c>
       <c r="W20" s="2">
         <v>3</v>
       </c>
       <c r="X20" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
@@ -1656,7 +1684,7 @@
       </c>
       <c r="H21" s="45">
         <f t="shared" si="0"/>
-        <v>97.659765355316551</v>
+        <v>98.860314504206826</v>
       </c>
       <c r="I21" s="6">
         <v>3</v>
@@ -1683,7 +1711,7 @@
       </c>
       <c r="P21" s="45">
         <f t="shared" si="3"/>
-        <v>95.939224857665323</v>
+        <v>97.139774006555598</v>
       </c>
       <c r="Q21" s="2">
         <v>2</v>
@@ -1704,13 +1732,13 @@
       </c>
       <c r="V21" s="33">
         <f t="shared" si="6"/>
-        <v>100.22326613649616</v>
+        <v>101.42381528538644</v>
       </c>
       <c r="W21" s="2">
         <v>3</v>
       </c>
       <c r="X21" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z21" s="6"/>
     </row>
@@ -1735,7 +1763,7 @@
       </c>
       <c r="H22" s="45">
         <f t="shared" si="0"/>
-        <v>93.770113289769554</v>
+        <v>94.815637332198207</v>
       </c>
       <c r="I22" s="6">
         <v>4</v>
@@ -1762,7 +1790,7 @@
       </c>
       <c r="P22" s="45">
         <f t="shared" si="3"/>
-        <v>91.735523699674999</v>
+        <v>92.781047742103652</v>
       </c>
       <c r="Q22" s="2">
         <v>3</v>
@@ -1783,13 +1811,13 @@
       </c>
       <c r="V22" s="33">
         <f t="shared" si="6"/>
-        <v>96.36129302453547</v>
+        <v>97.406817066964123</v>
       </c>
       <c r="W22" s="2">
         <v>3</v>
       </c>
       <c r="X22" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
@@ -1814,7 +1842,7 @@
       </c>
       <c r="H23" s="45">
         <f t="shared" si="0"/>
-        <v>98.994328275178276</v>
+        <v>100.29102013948958</v>
       </c>
       <c r="I23" s="6">
         <v>3</v>
@@ -1841,7 +1869,7 @@
       </c>
       <c r="P23" s="45">
         <f t="shared" si="3"/>
-        <v>97.139774006555598</v>
+        <v>98.436465870866897</v>
       </c>
       <c r="Q23" s="2">
         <v>2</v>
@@ -1862,13 +1890,13 @@
       </c>
       <c r="V23" s="33">
         <f t="shared" si="6"/>
-        <v>101.65496445075476</v>
+        <v>102.95165631506606</v>
       </c>
       <c r="W23" s="2">
         <v>3</v>
       </c>
       <c r="X23" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z23" s="6"/>
     </row>
@@ -1893,7 +1921,7 @@
       </c>
       <c r="H24" s="45">
         <f t="shared" si="0"/>
-        <v>96.305575377617004</v>
+        <v>97.506124526507278</v>
       </c>
       <c r="I24" s="6">
         <v>4</v>
@@ -1920,7 +1948,7 @@
       </c>
       <c r="P24" s="45">
         <f t="shared" si="3"/>
-        <v>93.898732260192276</v>
+        <v>95.09928140908255</v>
       </c>
       <c r="Q24" s="2">
         <v>3</v>
@@ -1941,13 +1969,13 @@
       </c>
       <c r="V24" s="33">
         <f t="shared" si="6"/>
-        <v>98.896088197759894</v>
+        <v>100.09663734665017</v>
       </c>
       <c r="W24" s="2">
         <v>3</v>
       </c>
       <c r="X24" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z24" s="6"/>
     </row>
@@ -1972,7 +2000,7 @@
       </c>
       <c r="H25" s="45">
         <f t="shared" si="0"/>
-        <v>97.218688745286812</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I25" s="6">
         <v>3</v>
@@ -1999,7 +2027,7 @@
       </c>
       <c r="P25" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q25" s="2">
         <v>2</v>
@@ -2020,13 +2048,13 @@
       </c>
       <c r="V25" s="33">
         <f t="shared" si="6"/>
-        <v>99.693309287466974</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W25" s="2">
         <v>3</v>
       </c>
       <c r="X25" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="6"/>
     </row>
@@ -2051,7 +2079,7 @@
       </c>
       <c r="H26" s="45">
         <f t="shared" si="0"/>
-        <v>97.218688745286812</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I26" s="6">
         <v>3</v>
@@ -2078,7 +2106,7 @@
       </c>
       <c r="P26" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q26" s="2">
         <v>2</v>
@@ -2099,13 +2127,13 @@
       </c>
       <c r="V26" s="33">
         <f t="shared" si="6"/>
-        <v>99.693309287466974</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W26" s="2">
         <v>3</v>
       </c>
       <c r="X26" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z26" s="6"/>
     </row>
@@ -2130,7 +2158,7 @@
       </c>
       <c r="H27" s="45">
         <f t="shared" si="0"/>
-        <v>97.218688745286812</v>
+        <v>98.419237894177087</v>
       </c>
       <c r="I27" s="6">
         <v>3</v>
@@ -2157,7 +2185,7 @@
       </c>
       <c r="P27" s="45">
         <f t="shared" si="3"/>
-        <v>95.593839090174669</v>
+        <v>96.794388239064943</v>
       </c>
       <c r="Q27" s="2">
         <v>2</v>
@@ -2178,13 +2206,13 @@
       </c>
       <c r="V27" s="33">
         <f t="shared" si="6"/>
-        <v>99.693309287466974</v>
+        <v>100.89385843635725</v>
       </c>
       <c r="W27" s="2">
         <v>3</v>
       </c>
       <c r="X27" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z27" s="6"/>
     </row>
@@ -2265,7 +2293,6 @@
       <c r="X28" s="21">
         <v>14</v>
       </c>
-      <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
@@ -2288,7 +2315,7 @@
       </c>
       <c r="H29" s="47">
         <f t="shared" si="0"/>
-        <v>95.258357093057995</v>
+        <v>98.622114802465546</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
@@ -2315,7 +2342,7 @@
       </c>
       <c r="P29" s="47">
         <f t="shared" si="3"/>
-        <v>93.776016297148047</v>
+        <v>97.139774006555598</v>
       </c>
       <c r="Q29" s="4">
         <v>2</v>
@@ -2336,20 +2363,14 @@
       </c>
       <c r="V29" s="33">
         <f t="shared" si="6"/>
-        <v>97.948225308829862</v>
+        <v>101.31198301823741</v>
       </c>
       <c r="W29" s="2">
         <v>3</v>
       </c>
       <c r="X29" s="27">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="38">
@@ -2370,7 +2391,7 @@
       </c>
       <c r="H30" s="39">
         <f t="shared" si="7"/>
-        <v>96.819835188993565</v>
+        <v>98.128084166099015</v>
       </c>
       <c r="I30" s="39">
         <f t="shared" si="7"/>
@@ -2402,7 +2423,7 @@
       </c>
       <c r="P30" s="39">
         <f t="shared" si="7"/>
-        <v>95.116990175708096</v>
+        <v>96.425239152813575</v>
       </c>
       <c r="Q30" s="39">
         <f t="shared" si="7"/>
@@ -2426,194 +2447,234 @@
       </c>
       <c r="V30" s="19">
         <f t="shared" si="7"/>
-        <v>99.3978422308803</v>
+        <v>100.70609120798576</v>
       </c>
       <c r="W30" s="19">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X30" s="57">
+        <f>AVERAGE(X12:X29)</f>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="H31" s="62">
+        <f>MAX(0,(171 - 5.2 * LN(F30) - 0.23 * (I30) - 16.2 * LN(X30))*100 / 171)</f>
+        <v>57.366971037868211</v>
+      </c>
+      <c r="P31" s="62">
+        <f>MAX(0,(171 - 5.2 * LN(M30) - 0.23 * (Q30) - 16.2 * LN(X30))*100 / 171)</f>
+        <v>57.580015422680404</v>
+      </c>
+      <c r="V31" s="62">
+        <f>MAX(0,(171 - 5.2 * LN(T30) - 0.23 * (W30) - 16.2 * LN(X30))*100 / 171)</f>
+        <v>58.870912454079686</v>
+      </c>
+      <c r="X31" s="14">
         <f>AVERAGE(D30,J30,R30)</f>
         <v>63.518518518518526</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y31" s="15">
         <f>AVERAGE(E30,K30,S30)</f>
         <v>25.944444444444443</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="Z31" s="15">
         <f>AVERAGE(F30,L30,T30)</f>
         <v>355.55067228180297</v>
       </c>
-      <c r="AA30" s="15">
+      <c r="AA31" s="15">
         <f>AVERAGE(G30,N30,U30)</f>
         <v>16.743315696649027</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AB31" s="15">
         <f>AVERAGE(I30,Q30,W30)</f>
         <v>2.7407407407407405</v>
       </c>
-      <c r="AC30" s="15">
+      <c r="AC31" s="15">
         <f>AVERAGE(H30,P30,V30)</f>
-        <v>97.111555865193978</v>
-      </c>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="18" t="s">
+        <v>98.419804842299456</v>
+      </c>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="X31" s="14">
+    <row r="32" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="14">
         <f>MIN(D30,J30,R30)</f>
         <v>49.833333333333336</v>
       </c>
-      <c r="Y31" s="15">
+      <c r="Y32" s="15">
         <f>MIN(E30,K30,S30)</f>
         <v>19.388888888888889</v>
       </c>
-      <c r="Z31" s="15">
+      <c r="Z32" s="15">
         <f>MIN(F30,L30,T30)</f>
         <v>213.14212795652006</v>
       </c>
-      <c r="AA31" s="15">
+      <c r="AA32" s="15">
         <f>MIN(G30,N30,U30)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="AB31" s="15">
+      <c r="AB32" s="15">
         <f>MIN(I30,Q30,W30)</f>
         <v>2.1111111111111112</v>
       </c>
-      <c r="AC31" s="15">
+      <c r="AC32" s="15">
         <f>MIN(H30,P30,V30)</f>
-        <v>95.116990175708096</v>
-      </c>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="18" t="s">
+        <v>96.425239152813575</v>
+      </c>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="X32" s="14">
+    <row r="33" spans="2:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X33" s="14">
         <f>MAX(D30,J30,R30)</f>
         <v>70.833333333333329</v>
       </c>
-      <c r="Y32" s="15">
+      <c r="Y33" s="15">
         <f>MAX(E30,K30,S30)</f>
         <v>30.888888888888889</v>
       </c>
-      <c r="Z32" s="15">
+      <c r="Z33" s="15">
         <f>MAX(F30,L30,T30)</f>
         <v>505.71599999999995</v>
       </c>
-      <c r="AA32" s="15">
+      <c r="AA33" s="15">
         <f>MAX(G30,N30,U30)</f>
         <v>20.056666666666658</v>
       </c>
-      <c r="AB32" s="15">
+      <c r="AB33" s="15">
         <f>MAX(I30,Q30,W30)</f>
         <v>3.1111111111111112</v>
       </c>
-      <c r="AC32" s="15">
+      <c r="AC33" s="15">
         <f>MAX(H30,P30,V30)</f>
-        <v>99.3978422308803</v>
-      </c>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="18" t="s">
+        <v>100.70609120798576</v>
+      </c>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X33" s="13">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="X34" s="13">
         <f>_xlfn.STDEV.P(D30,J30,R30)</f>
         <v>9.6845655208607901</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y34" s="6">
         <f>_xlfn.STDEV.P(E30,K30,S30)</f>
         <v>4.8310978227354928</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="Z34" s="6">
         <f>_xlfn.STDEV.P(F30,L30,T30)</f>
         <v>119.56865090003618</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="AA34" s="6">
         <f>_xlfn.STDEV.P(G30,N30,U30)</f>
         <v>2.6140703709365214</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AB34" s="6">
         <f>_xlfn.STDEV.P(I30,Q30,W30)</f>
         <v>0.44752022124424684</v>
       </c>
-      <c r="AC33" s="6">
+      <c r="AC34" s="6">
         <f>_xlfn.STDEV.P(H30,P30,V30)</f>
-        <v>1.7597820498118786</v>
-      </c>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="18" t="s">
+        <v>1.7597820498118737</v>
+      </c>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="X34" s="13">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="X35" s="13">
         <f>_xlfn.VAR.P(D30,J30,R30)</f>
         <v>93.790809327845636</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y35" s="6">
         <f>_xlfn.VAR.P(E30,K30,S30)</f>
         <v>23.33950617283962</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="Z35" s="6">
         <f>_xlfn.VAR.P(F30,L30,T30)</f>
         <v>14296.662278054722</v>
       </c>
-      <c r="AA34" s="6">
+      <c r="AA35" s="6">
         <f>_xlfn.VAR.P(G30,N30,U30)</f>
         <v>6.8333639042082019</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AB35" s="6">
         <f>_xlfn.VAR.P(I30,Q30,W30)</f>
         <v>0.20027434842249964</v>
       </c>
-      <c r="AC34" s="6">
+      <c r="AC35" s="6">
         <f>_xlfn.VAR.P(H30,P30,V30)</f>
-        <v>3.0968328628400967</v>
-      </c>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="18" t="s">
+        <v>3.0968328628400799</v>
+      </c>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X35" s="20" t="s">
+    <row r="36" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="Z36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA35" s="3" t="s">
+      <c r="AA36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC35" s="3" t="s">
+      <c r="AB36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="4"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="4"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AC37" s="64">
+        <f>AVERAGE(H31,P31,V31)</f>
+        <v>57.939299638209434</v>
+      </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="22" t="s">
         <v>5</v>
       </c>
@@ -2628,6 +2689,10 @@
       <c r="M38" s="2"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
+      <c r="AC38" s="21">
+        <f>_xlfn.STDEV.P(V31,P31,H31)</f>
+        <v>0.66446660638202992</v>
+      </c>
     </row>
     <row r="39" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
@@ -2665,6 +2730,9 @@
         <v>25</v>
       </c>
       <c r="N39" s="6"/>
+      <c r="AC39" s="63" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
